--- a/Data_science_outputs/1000pop/avg_analysis/avg_analysis_3.xlsx
+++ b/Data_science_outputs/1000pop/avg_analysis/avg_analysis_3.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26313.51312239919</v>
+        <v>19460.04417135087</v>
       </c>
       <c r="C3" t="n">
         <v>15834.46691845242</v>
       </c>
       <c r="D3" t="n">
-        <v>7764.354347872907</v>
+        <v>905.1407206316592</v>
       </c>
       <c r="E3" t="n">
         <v>2660.204287224125</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9076.736447381103</v>
+        <v>8173.496963332988</v>
       </c>
       <c r="C4" t="n">
         <v>7691.656572160124</v>
       </c>
       <c r="D4" t="n">
-        <v>7097.091959822533</v>
+        <v>442.3351594171519</v>
       </c>
       <c r="E4" t="n">
         <v>1031.682553386551</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6331.561843835619</v>
+        <v>6452.864243835624</v>
       </c>
       <c r="C5" t="n">
         <v>4235.875571428572</v>
       </c>
       <c r="D5" t="n">
-        <v>134.1518082191778</v>
+        <v>116.3737041095889</v>
       </c>
       <c r="E5" t="n">
         <v>944.7302684931482</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16865.4331760274</v>
+        <v>13341.54491438356</v>
       </c>
       <c r="C6" t="n">
         <v>10086.48942857143</v>
       </c>
       <c r="D6" t="n">
-        <v>466.6583390410954</v>
+        <v>457.712813013698</v>
       </c>
       <c r="E6" t="n">
         <v>1687.295582876711</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27695.58628630138</v>
+        <v>16797.49992739726</v>
       </c>
       <c r="C7" t="n">
         <v>12581.44435714286</v>
       </c>
       <c r="D7" t="n">
-        <v>7695.904131506848</v>
+        <v>918.6379260273966</v>
       </c>
       <c r="E7" t="n">
         <v>2746.51317260274</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32598.07715958908</v>
+        <v>26967.45173630147</v>
       </c>
       <c r="C8" t="n">
         <v>22439.91250000011</v>
       </c>
       <c r="D8" t="n">
-        <v>15436.03082671233</v>
+        <v>1355.441796575342</v>
       </c>
       <c r="E8" t="n">
         <v>3539.026345205479</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41517.94328493161</v>
+        <v>36160.18990958908</v>
       </c>
       <c r="C9" t="n">
         <v>32777.70671428578</v>
       </c>
       <c r="D9" t="n">
-        <v>15495.34246849315</v>
+        <v>1417.97261369863</v>
       </c>
       <c r="E9" t="n">
         <v>4930.68963561643</v>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>37891458.89625484</v>
+        <v>28022463.60674525</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>22801632.36257147</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6038325028434459</v>
+        <v>0.8167863866874109</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>11180670.26093699</v>
+        <v>1303402.637709589</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2950709892577421</v>
+        <v>0.04651277831959957</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +696,7 @@
         <v>3830694.173602738</v>
       </c>
       <c r="G13" t="n">
-        <v>0.101096507898812</v>
+        <v>0.1367008349929896</v>
       </c>
     </row>
   </sheetData>
